--- a/text.xlsx
+++ b/text.xlsx
@@ -579,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
@@ -1032,6 +1032,40 @@
         <v>4</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/text.xlsx
+++ b/text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>distance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,10 @@
   </si>
   <si>
     <t>인사동피자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,8 +280,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -579,18 +584,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="A32" sqref="A32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -606,8 +611,14 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1">
+        <v>44252</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -623,8 +634,11 @@
       <c r="E2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -640,8 +654,11 @@
       <c r="E3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -657,8 +674,11 @@
       <c r="E4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -674,8 +694,11 @@
       <c r="E5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -691,8 +714,11 @@
       <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -708,8 +734,11 @@
       <c r="E7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -725,8 +754,11 @@
       <c r="E8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -742,8 +774,11 @@
       <c r="E9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="1">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -759,8 +794,11 @@
       <c r="E10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="1">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -776,8 +814,11 @@
       <c r="E11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="1">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -793,8 +834,11 @@
       <c r="E12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -810,8 +854,11 @@
       <c r="E13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="1">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -827,8 +874,11 @@
       <c r="E14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="1">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -844,8 +894,11 @@
       <c r="E15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="1">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -861,8 +914,11 @@
       <c r="E16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="1">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -878,8 +934,11 @@
       <c r="E17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="1">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -895,8 +954,11 @@
       <c r="E18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="1">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -912,8 +974,11 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="1">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -929,8 +994,11 @@
       <c r="E20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="1">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -946,8 +1014,11 @@
       <c r="E21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="1">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -963,8 +1034,11 @@
       <c r="E22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="1">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -980,8 +1054,11 @@
       <c r="E23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="1">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -997,8 +1074,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="1">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1014,8 +1094,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="1">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1031,8 +1114,11 @@
       <c r="E26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="1">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1048,8 +1134,11 @@
       <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="1">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1064,6 +1153,69 @@
       </c>
       <c r="E28">
         <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44252</v>
       </c>
     </row>
   </sheetData>
